--- a/fones.xlsx
+++ b/fones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4042731415db51ae/Área de Trabalho/CIENCIA DADOS SCS/WEBSCRAPING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4042731415db51ae/Área de Trabalho/CIENCIA DADOS SCS/WEBSCRAPING_EXERCICIOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1E5DB1B2D3605D00E7BB2311595ED87656CD09FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B344BD-BEF3-4020-9262-056AE1417B47}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_1E5DB1B2D3605D00E7BB2311595ED87656CD09FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC874E2-8E8F-40D1-9A06-D516D2357E60}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="209">
   <si>
     <t>desc_produto</t>
   </si>
@@ -130,12 +130,6 @@
     <t>R$ 224,99</t>
   </si>
   <si>
-    <t>Suporte Gamer Para Fone De Ouvido Acrílico De Mesa Parede Com Fita Dupla Face Preto</t>
-  </si>
-  <si>
-    <t>R$ 33,06</t>
-  </si>
-  <si>
     <t>Fone De Ouvido Branco Tws Pro4 Pro Sem Fio Case Intra Auricular</t>
   </si>
   <si>
@@ -154,12 +148,6 @@
     <t>R$ 62,64</t>
   </si>
   <si>
-    <t>Cabo Adaptador De Fone 2 Entradas 1 Saída</t>
-  </si>
-  <si>
-    <t>R$ 3,71</t>
-  </si>
-  <si>
     <t>Fone de Ouvido Gamer Intra-Auricular Steelseries Tusq, P4, Preto - 61650</t>
   </si>
   <si>
@@ -184,18 +172,6 @@
     <t>R$ 151,46</t>
   </si>
   <si>
-    <t>100 PCs Protetor Descartável Fone De Ouvido 6cm Preto Cor:preto</t>
-  </si>
-  <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
-    <t>Amplificador Fiio Ka5 Dac De Fone De Ouvido, Portátil, USB E Lightning</t>
-  </si>
-  <si>
-    <t>R$ 1.066,23</t>
-  </si>
-  <si>
     <t>Fone De Ouvido Jbl In Ear, Preto - Jblc50hiblk</t>
   </si>
   <si>
@@ -340,12 +316,6 @@
     <t>R$ 315,99</t>
   </si>
   <si>
-    <t>Amplificador Dac De Fone De Ouvido Fiio Ka1 - Placa De Som Usb</t>
-  </si>
-  <si>
-    <t>R$ 386,10</t>
-  </si>
-  <si>
     <t>Fone De Ouvido Gamer Altomex A-607, Tws, Earbuds, Bluetooth 5.0 - Preto</t>
   </si>
   <si>
@@ -364,9 +334,6 @@
     <t>R$ 173,63</t>
   </si>
   <si>
-    <t>Cabo Adaptador De Fone, 1 Entrada, 2 Saidas</t>
-  </si>
-  <si>
     <t>Fone Gamer Astro A10, Gen2, Headset ,Branco Xbox, pc</t>
   </si>
   <si>
@@ -379,12 +346,6 @@
     <t>R$ 599,00</t>
   </si>
   <si>
-    <t>Amplificador Dac De Fone De Ouvido Fiio Ka2 Conexao Lightning, Saída 4,4mm - Balanceada</t>
-  </si>
-  <si>
-    <t>R$ 430,65</t>
-  </si>
-  <si>
     <t>Fone de Ouvido Gamer com Fio Over-ear Cor Preto Azul Knup 397</t>
   </si>
   <si>
@@ -526,12 +487,6 @@
     <t>R$ 1.759,00</t>
   </si>
   <si>
-    <t>Caneca Pop Doutor Estranho - Marvel</t>
-  </si>
-  <si>
-    <t>R$ 71,88</t>
-  </si>
-  <si>
     <t>Fone De Ouvido Bluetooth Sem Fio Wireless Basike Azul</t>
   </si>
   <si>
@@ -562,15 +517,6 @@
     <t>Fone De Ouvido Bluetooth Preto Sem Fio LED Display Digital Touch Sem Fio Air 31 Fitness Gamer Case Transparente</t>
   </si>
   <si>
-    <t>100 PCs Protetor Descartável Fone De Ouvido 6cm Azul Cor:azul</t>
-  </si>
-  <si>
-    <t>100 PCs Protetor Descartável Fone De Ouvido 6cm Branco Cor:branco</t>
-  </si>
-  <si>
-    <t>Amplificador Dac De Fone De Ouvido Fiio Ka 1 Conexão Lightning</t>
-  </si>
-  <si>
     <t>Fone Ouvido Bluetooth Gamer Lenovo Thinkplus Live Pods Xt81,preto</t>
   </si>
   <si>
@@ -658,12 +604,6 @@
     <t>R$ 399,00</t>
   </si>
   <si>
-    <t>Ear Candy - Rosa - Panasonic Cor:rosa</t>
-  </si>
-  <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <t>Headsete Gamer Microfone Para Celular Notebook Linha Premium Fone - Vermelho</t>
   </si>
   <si>
@@ -688,12 +628,6 @@
     <t>R$ 77,66</t>
   </si>
   <si>
-    <t>Amplificador De Fone De Ouvido Fiio A3 - e11k Ii</t>
-  </si>
-  <si>
-    <t>R$ 445,52</t>
-  </si>
-  <si>
     <t>Fone De Ouvido Gamer Com Fio Lehmox Ley-2264</t>
   </si>
   <si>
@@ -703,22 +637,10 @@
     <t>Headfone Fone Igoodlo Gamer X8 Com LED Celular PC Cor:vermelho</t>
   </si>
   <si>
-    <t>Case Para Hd Externo Usb 3.0</t>
-  </si>
-  <si>
-    <t>R$ 39,99</t>
-  </si>
-  <si>
     <t>Fone De Ouvido C/ Microfone Gamer Com Fio P3 3.5mm Azul</t>
   </si>
   <si>
     <t>R$ 99,90</t>
-  </si>
-  <si>
-    <t>Transmissor Airfly Pro Preto</t>
-  </si>
-  <si>
-    <t>R$ 588,90</t>
   </si>
   <si>
     <t>Fone De Ouvido C/ Microfone Headset Gamer Com Fio P3 3.5mm Preto</t>
@@ -1091,15 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="173" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1500,175 +1420,175 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
         <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
         <v>119</v>
-      </c>
-      <c r="B63" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,39 +1612,39 @@
         <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
         <v>141</v>
-      </c>
-      <c r="B75" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
         <v>143</v>
-      </c>
-      <c r="B76" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
         <v>145</v>
-      </c>
-      <c r="B77" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
         <v>147</v>
-      </c>
-      <c r="B78" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,15 +1660,15 @@
         <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
         <v>152</v>
-      </c>
-      <c r="B81" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,119 +1684,119 @@
         <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" t="s">
         <v>157</v>
-      </c>
-      <c r="B84" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
         <v>159</v>
-      </c>
-      <c r="B85" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
         <v>179</v>
-      </c>
-      <c r="B97" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,247 +1804,127 @@
         <v>180</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>206</v>
-      </c>
-      <c r="B114" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
         <v>208</v>
-      </c>
-      <c r="B115" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>210</v>
-      </c>
-      <c r="B116" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>212</v>
-      </c>
-      <c r="B117" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>214</v>
-      </c>
-      <c r="B118" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>216</v>
-      </c>
-      <c r="B119" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>218</v>
-      </c>
-      <c r="B120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>220</v>
-      </c>
-      <c r="B121" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>227</v>
-      </c>
-      <c r="B125" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>229</v>
-      </c>
-      <c r="B126" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>231</v>
-      </c>
-      <c r="B127" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>233</v>
-      </c>
-      <c r="B128" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
